--- a/context_sets.xlsx
+++ b/context_sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonyvelasquez/Documents/School/Stanford/QP1/2022 - Autumn/number_precision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878F39F3-85AF-184D-A1D9-7927A0EEAA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAF08C4-DD81-984A-A086-9451E44DFA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3100" windowWidth="21180" windowHeight="19460" activeTab="2" xr2:uid="{50A77AC9-4DF3-8148-89CD-21D5305E06F1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21180" windowHeight="16040" activeTab="2" xr2:uid="{50A77AC9-4DF3-8148-89CD-21D5305E06F1}"/>
   </bookViews>
   <sheets>
     <sheet name="v0.1" sheetId="1" r:id="rId1"/>
@@ -343,7 +343,7 @@
     <t>Lauren and Ben are hosting a party at their house. They want to have twenty-five people or less so that the party doesn't get out of hand. Lauren has heard from all the guests about whether they'll attend. Ben asks her, “How many people said they would come?”</t>
   </si>
   <si>
-    <t>Lauren and Ben are hosting a party at their house. They want to have at least twenty-five people so that the party has the right vibe [/so that two friends they know won't want to talk to each other don't have to interact/so that friends from different circles can meet each other/so that people can spread out and talk in small groups]. Lauren has heard from all the guests about whether they'll attend. Ben asks her, “How many people said they would come?”</t>
+    <t>Lauren and Ben are hosting a party at their house. They want to have at least twenty-five people so that people can spread out and talk in small groups. Lauren has heard from all the guests about whether they'll attend. Ben asks her, “How many people said they would come?”</t>
   </si>
 </sst>
 </file>
@@ -2160,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DCE748-6E6E-6E48-9B11-4C5E034B2889}">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2342,7 +2342,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
